--- a/import/data.xlsx
+++ b/import/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kek\PycharmProjects\RSLogix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kir\Desktop\PycharmProjects\RSLogix_signal_processing\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DC2F70-439F-4676-A066-88E160160913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C629A7-CB98-48C3-8288-E520BF793EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10485" yWindow="3240" windowWidth="14400" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7080" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1195,17 +1195,23 @@
     <t>I:5/15</t>
   </si>
   <si>
-    <t>TAG</t>
+    <t>ДЛЯ ПРОГРАММЫ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1228,10 +1234,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1547,54 +1554,53 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AQ187"/>
+  <dimension ref="A1:AP187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="M1" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -1624,3782 +1630,3781 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F2" t="s">
+        <v>335</v>
+      </c>
+      <c r="M2" s="2" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
-        <v>DSJQAR</v>
-      </c>
-      <c r="C2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F2" t="s">
-        <v>334</v>
-      </c>
-      <c r="G2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+        <v>QNMAKS</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="C3" t="s">
+        <v>336</v>
+      </c>
       <c r="D3" t="s">
-        <v>336</v>
-      </c>
-      <c r="E3" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B4" s="2" t="str">
-        <f t="shared" ref="B4:B63" ca="1" si="0">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
-        <v>FUNVZB</v>
+      <c r="B4" t="s">
+        <v>337</v>
       </c>
       <c r="C4" t="s">
-        <v>337</v>
+        <v>248</v>
       </c>
       <c r="D4" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="E4" t="s">
-        <v>258</v>
+        <v>338</v>
       </c>
       <c r="F4" t="s">
-        <v>338</v>
-      </c>
-      <c r="G4" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="M4" s="2" t="str">
+        <f t="shared" ref="M4:M63" ca="1" si="0">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>UFLEGE</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="C5" t="s">
+        <v>250</v>
+      </c>
       <c r="D5" t="s">
-        <v>250</v>
-      </c>
-      <c r="E5" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" t="s">
+        <v>339</v>
+      </c>
       <c r="C6" t="s">
-        <v>339</v>
+        <v>253</v>
       </c>
       <c r="D6" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="E6" t="s">
-        <v>264</v>
+        <v>340</v>
       </c>
       <c r="F6" t="s">
-        <v>340</v>
-      </c>
-      <c r="G6" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="C7" t="s">
+        <v>257</v>
+      </c>
       <c r="D7" t="s">
-        <v>257</v>
-      </c>
-      <c r="E7" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" t="s">
+        <v>341</v>
+      </c>
       <c r="C8" t="s">
-        <v>341</v>
+        <v>259</v>
       </c>
       <c r="D8" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="E8" t="s">
-        <v>269</v>
+        <v>342</v>
       </c>
       <c r="F8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G8" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="C9" t="s">
+        <v>262</v>
+      </c>
       <c r="D9" t="s">
-        <v>262</v>
-      </c>
-      <c r="E9" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" t="s">
+        <v>343</v>
+      </c>
       <c r="C10" t="s">
-        <v>343</v>
+        <v>263</v>
       </c>
       <c r="D10" t="s">
-        <v>263</v>
+        <v>344</v>
       </c>
       <c r="E10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F10" t="s">
-        <v>345</v>
-      </c>
-      <c r="G10" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="C11" t="s">
+        <v>265</v>
+      </c>
       <c r="D11" t="s">
-        <v>265</v>
-      </c>
-      <c r="E11" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s">
+        <v>347</v>
+      </c>
       <c r="C12" t="s">
-        <v>347</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="E12" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F12" t="s">
-        <v>349</v>
-      </c>
-      <c r="G12" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
       <c r="D13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" t="s">
+        <v>351</v>
+      </c>
       <c r="C14" t="s">
-        <v>351</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>352</v>
       </c>
       <c r="E14" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F14" t="s">
-        <v>353</v>
-      </c>
-      <c r="G14" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
       <c r="D15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" t="s">
+        <v>355</v>
+      </c>
       <c r="C16" t="s">
-        <v>355</v>
+        <v>98</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>356</v>
       </c>
       <c r="E16" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F16" t="s">
-        <v>357</v>
-      </c>
-      <c r="G16" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="C17" t="s">
+        <v>105</v>
+      </c>
       <c r="D17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="C18" t="s">
+        <v>111</v>
+      </c>
       <c r="D18" t="s">
-        <v>111</v>
-      </c>
-      <c r="E18" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="C19" t="s">
+        <v>112</v>
+      </c>
       <c r="D19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E19" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B21" s="2" t="str">
+      <c r="B21" t="s">
+        <v>360</v>
+      </c>
+      <c r="C21" t="s">
+        <v>333</v>
+      </c>
+      <c r="D21" t="s">
+        <v>249</v>
+      </c>
+      <c r="E21" t="s">
+        <v>361</v>
+      </c>
+      <c r="F21" t="s">
+        <v>335</v>
+      </c>
+      <c r="M21" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>KDJGEJ</v>
-      </c>
-      <c r="C21" t="s">
-        <v>360</v>
-      </c>
-      <c r="D21" t="s">
-        <v>333</v>
-      </c>
-      <c r="E21" t="s">
-        <v>249</v>
-      </c>
-      <c r="F21" t="s">
-        <v>361</v>
-      </c>
-      <c r="G21" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>JTTKKP</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="C22" t="s">
+        <v>336</v>
+      </c>
       <c r="D22" t="s">
-        <v>336</v>
-      </c>
-      <c r="E22" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B23" s="2" t="str">
+      <c r="B23" t="s">
+        <v>362</v>
+      </c>
+      <c r="C23" t="s">
+        <v>248</v>
+      </c>
+      <c r="D23" t="s">
+        <v>258</v>
+      </c>
+      <c r="E23" t="s">
+        <v>363</v>
+      </c>
+      <c r="F23" t="s">
+        <v>335</v>
+      </c>
+      <c r="M23" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>QOJZVL</v>
-      </c>
-      <c r="C23" t="s">
-        <v>362</v>
-      </c>
-      <c r="D23" t="s">
-        <v>248</v>
-      </c>
-      <c r="E23" t="s">
-        <v>258</v>
-      </c>
-      <c r="F23" t="s">
-        <v>363</v>
-      </c>
-      <c r="G23" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>TFHSZB</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="C24" t="s">
+        <v>250</v>
+      </c>
       <c r="D24" t="s">
-        <v>250</v>
-      </c>
-      <c r="E24" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B25" s="2" t="str">
+      <c r="B25" t="s">
+        <v>364</v>
+      </c>
+      <c r="C25" t="s">
+        <v>253</v>
+      </c>
+      <c r="D25" t="s">
+        <v>264</v>
+      </c>
+      <c r="E25" t="s">
+        <v>365</v>
+      </c>
+      <c r="F25" t="s">
+        <v>335</v>
+      </c>
+      <c r="M25" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>CDFFTP</v>
-      </c>
-      <c r="C25" t="s">
-        <v>364</v>
-      </c>
-      <c r="D25" t="s">
-        <v>253</v>
-      </c>
-      <c r="E25" t="s">
-        <v>264</v>
-      </c>
-      <c r="F25" t="s">
-        <v>365</v>
-      </c>
-      <c r="G25" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>IWYOGZ</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="C26" t="s">
+        <v>257</v>
+      </c>
       <c r="D26" t="s">
-        <v>257</v>
-      </c>
-      <c r="E26" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B27" s="2" t="str">
+      <c r="B27" t="s">
+        <v>366</v>
+      </c>
+      <c r="C27" t="s">
+        <v>259</v>
+      </c>
+      <c r="D27" t="s">
+        <v>269</v>
+      </c>
+      <c r="E27" t="s">
+        <v>367</v>
+      </c>
+      <c r="F27" t="s">
+        <v>335</v>
+      </c>
+      <c r="M27" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>ILFLPE</v>
-      </c>
-      <c r="C27" t="s">
-        <v>366</v>
-      </c>
-      <c r="D27" t="s">
-        <v>259</v>
-      </c>
-      <c r="E27" t="s">
-        <v>269</v>
-      </c>
-      <c r="F27" t="s">
-        <v>367</v>
-      </c>
-      <c r="G27" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+        <v>TVTMXJ</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="C28" t="s">
+        <v>262</v>
+      </c>
       <c r="D28" t="s">
-        <v>262</v>
-      </c>
-      <c r="E28" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B29" s="2" t="str">
+      <c r="B29" t="s">
+        <v>368</v>
+      </c>
+      <c r="C29" t="s">
+        <v>263</v>
+      </c>
+      <c r="D29" t="s">
+        <v>344</v>
+      </c>
+      <c r="E29" t="s">
+        <v>369</v>
+      </c>
+      <c r="F29" t="s">
+        <v>335</v>
+      </c>
+      <c r="M29" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PORCMU</v>
-      </c>
-      <c r="C29" t="s">
-        <v>368</v>
-      </c>
-      <c r="D29" t="s">
-        <v>263</v>
-      </c>
-      <c r="E29" t="s">
-        <v>344</v>
-      </c>
-      <c r="F29" t="s">
-        <v>369</v>
-      </c>
-      <c r="G29" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+        <v>JQVWWJ</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="C30" t="s">
+        <v>265</v>
+      </c>
       <c r="D30" t="s">
-        <v>265</v>
-      </c>
-      <c r="E30" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B31" s="2" t="str">
+      <c r="B31" t="s">
+        <v>370</v>
+      </c>
+      <c r="C31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" t="s">
+        <v>348</v>
+      </c>
+      <c r="E31" t="s">
+        <v>371</v>
+      </c>
+      <c r="F31" t="s">
+        <v>372</v>
+      </c>
+      <c r="G31" t="s">
+        <v>373</v>
+      </c>
+      <c r="H31" t="s">
+        <v>374</v>
+      </c>
+      <c r="M31" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>ECOWTS</v>
-      </c>
-      <c r="C31" t="s">
-        <v>370</v>
-      </c>
-      <c r="D31" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" t="s">
-        <v>348</v>
-      </c>
-      <c r="F31" t="s">
-        <v>371</v>
-      </c>
-      <c r="G31" t="s">
-        <v>372</v>
-      </c>
-      <c r="H31" t="s">
-        <v>373</v>
-      </c>
-      <c r="I31" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+        <v>ONVPAQ</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="C32" t="s">
+        <v>84</v>
+      </c>
       <c r="D32" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B33" s="2" t="str">
+      <c r="B33" t="s">
+        <v>375</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" t="s">
+        <v>352</v>
+      </c>
+      <c r="E33" t="s">
+        <v>52</v>
+      </c>
+      <c r="M33" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>AYJJQR</v>
-      </c>
-      <c r="C33" t="s">
-        <v>375</v>
-      </c>
-      <c r="D33" t="s">
-        <v>88</v>
-      </c>
-      <c r="E33" t="s">
-        <v>352</v>
-      </c>
-      <c r="F33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+        <v>EZYYCR</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="C34" t="s">
+        <v>92</v>
+      </c>
       <c r="D34" t="s">
-        <v>92</v>
-      </c>
-      <c r="E34" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B35" s="2" t="str">
+      <c r="B35" t="s">
+        <v>376</v>
+      </c>
+      <c r="C35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" t="s">
+        <v>356</v>
+      </c>
+      <c r="E35" t="s">
+        <v>52</v>
+      </c>
+      <c r="M35" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>YOVKSI</v>
-      </c>
-      <c r="C35" t="s">
-        <v>376</v>
-      </c>
-      <c r="D35" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" t="s">
-        <v>356</v>
-      </c>
-      <c r="F35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+        <v>KZIXWV</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B36" s="2"/>
+      <c r="C36" t="s">
+        <v>105</v>
+      </c>
       <c r="D36" t="s">
-        <v>105</v>
-      </c>
-      <c r="E36" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B37" s="2"/>
+      <c r="C37" t="s">
+        <v>111</v>
+      </c>
       <c r="D37" t="s">
-        <v>111</v>
-      </c>
-      <c r="E37" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B38" s="2"/>
+      <c r="C38" t="s">
+        <v>112</v>
+      </c>
       <c r="D38" t="s">
-        <v>112</v>
-      </c>
-      <c r="E38" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B39" s="2"/>
+      <c r="C39" t="s">
+        <v>248</v>
+      </c>
       <c r="D39" t="s">
-        <v>248</v>
-      </c>
-      <c r="E39" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B40" s="2"/>
+      <c r="C40" t="s">
+        <v>250</v>
+      </c>
       <c r="D40" t="s">
-        <v>250</v>
-      </c>
-      <c r="E40" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B42" s="2" t="str">
+      <c r="B42" t="s">
+        <v>252</v>
+      </c>
+      <c r="C42" t="s">
+        <v>253</v>
+      </c>
+      <c r="D42" t="s">
+        <v>254</v>
+      </c>
+      <c r="E42" t="s">
+        <v>255</v>
+      </c>
+      <c r="F42" t="s">
+        <v>256</v>
+      </c>
+      <c r="M42" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FTDZES</v>
-      </c>
-      <c r="C42" t="s">
-        <v>252</v>
-      </c>
-      <c r="D42" t="s">
-        <v>253</v>
-      </c>
-      <c r="E42" t="s">
-        <v>254</v>
-      </c>
-      <c r="F42" t="s">
-        <v>255</v>
-      </c>
-      <c r="G42" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+        <v>WFLMYW</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B43" s="2" t="str">
+      <c r="C43" t="s">
+        <v>257</v>
+      </c>
+      <c r="D43" t="s">
+        <v>258</v>
+      </c>
+      <c r="M43" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>XTMOBH</v>
-      </c>
-      <c r="D43" t="s">
-        <v>257</v>
-      </c>
-      <c r="E43" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+        <v>MURKSR</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B44" s="2" t="str">
+      <c r="C44" t="s">
+        <v>259</v>
+      </c>
+      <c r="D44" t="s">
+        <v>260</v>
+      </c>
+      <c r="M44" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>WZLZDX</v>
-      </c>
-      <c r="D44" t="s">
-        <v>259</v>
-      </c>
-      <c r="E44" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+        <v>MSLQQD</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B45" s="2" t="str">
+      <c r="B45" t="s">
+        <v>261</v>
+      </c>
+      <c r="C45" t="s">
+        <v>262</v>
+      </c>
+      <c r="D45" t="s">
+        <v>254</v>
+      </c>
+      <c r="E45" t="s">
+        <v>52</v>
+      </c>
+      <c r="M45" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>QWTINK</v>
-      </c>
-      <c r="C45" t="s">
-        <v>261</v>
-      </c>
-      <c r="D45" t="s">
-        <v>262</v>
-      </c>
-      <c r="E45" t="s">
-        <v>254</v>
-      </c>
-      <c r="F45" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+        <v>NHASLS</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B46" s="2"/>
+      <c r="C46" t="s">
+        <v>263</v>
+      </c>
       <c r="D46" t="s">
-        <v>263</v>
-      </c>
-      <c r="E46" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M46" s="2"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B47" s="2"/>
+      <c r="C47" t="s">
+        <v>265</v>
+      </c>
       <c r="D47" t="s">
-        <v>265</v>
-      </c>
-      <c r="E47" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M47" s="2"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B48" s="2" t="str">
+      <c r="B48" t="s">
+        <v>267</v>
+      </c>
+      <c r="C48" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" t="s">
+        <v>254</v>
+      </c>
+      <c r="E48" t="s">
+        <v>52</v>
+      </c>
+      <c r="M48" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MLHMBG</v>
-      </c>
-      <c r="C48" t="s">
-        <v>267</v>
-      </c>
-      <c r="D48" t="s">
-        <v>80</v>
-      </c>
-      <c r="E48" t="s">
-        <v>254</v>
-      </c>
-      <c r="F48" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+        <v>DPEZCD</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B49" s="2"/>
+      <c r="C49" t="s">
+        <v>111</v>
+      </c>
       <c r="D49" t="s">
-        <v>111</v>
-      </c>
-      <c r="E49" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M49" s="2"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B50" s="2"/>
+      <c r="C50" t="s">
+        <v>92</v>
+      </c>
       <c r="D50" t="s">
-        <v>92</v>
-      </c>
-      <c r="E50" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M50" s="2"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B51" s="2"/>
+      <c r="C51" t="s">
+        <v>98</v>
+      </c>
       <c r="D51" t="s">
-        <v>98</v>
-      </c>
-      <c r="E51" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M51" s="2"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B52" s="2" t="str">
+      <c r="B52" t="s">
+        <v>271</v>
+      </c>
+      <c r="C52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" t="s">
+        <v>254</v>
+      </c>
+      <c r="E52" t="s">
+        <v>52</v>
+      </c>
+      <c r="M52" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>DUZYOQ</v>
-      </c>
-      <c r="C52" t="s">
-        <v>271</v>
-      </c>
-      <c r="D52" t="s">
-        <v>105</v>
-      </c>
-      <c r="E52" t="s">
-        <v>254</v>
-      </c>
-      <c r="F52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <v>NLFDLI</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B53" s="2"/>
+      <c r="C53" t="s">
+        <v>112</v>
+      </c>
       <c r="D53" t="s">
-        <v>112</v>
-      </c>
-      <c r="E53" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M53" s="2"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
-      <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M54" s="2"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B55" s="2"/>
+      <c r="C55" t="s">
+        <v>248</v>
+      </c>
       <c r="D55" t="s">
-        <v>248</v>
-      </c>
-      <c r="E55" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M55" s="2"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B56" s="2"/>
+      <c r="C56" t="s">
+        <v>250</v>
+      </c>
       <c r="D56" t="s">
-        <v>250</v>
-      </c>
-      <c r="E56" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M56" s="2"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B57" s="2" t="str">
+      <c r="B57" t="s">
+        <v>273</v>
+      </c>
+      <c r="C57" t="s">
+        <v>253</v>
+      </c>
+      <c r="D57" t="s">
+        <v>254</v>
+      </c>
+      <c r="E57" t="s">
+        <v>52</v>
+      </c>
+      <c r="M57" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>BLQYQW</v>
-      </c>
-      <c r="C57" t="s">
-        <v>273</v>
-      </c>
-      <c r="D57" t="s">
-        <v>253</v>
-      </c>
-      <c r="E57" t="s">
-        <v>254</v>
-      </c>
-      <c r="F57" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+        <v>RTRICX</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B58" s="2"/>
+      <c r="C58" t="s">
+        <v>257</v>
+      </c>
       <c r="D58" t="s">
-        <v>257</v>
-      </c>
-      <c r="E58" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M58" s="2"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B59" s="2"/>
+      <c r="C59" t="s">
+        <v>259</v>
+      </c>
       <c r="D59" t="s">
-        <v>259</v>
-      </c>
-      <c r="E59" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M59" s="2"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B60" s="2" t="str">
+      <c r="B60" t="s">
+        <v>274</v>
+      </c>
+      <c r="C60" t="s">
+        <v>262</v>
+      </c>
+      <c r="D60" t="s">
+        <v>254</v>
+      </c>
+      <c r="E60" t="s">
+        <v>52</v>
+      </c>
+      <c r="M60" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MKEVRD</v>
-      </c>
-      <c r="C60" t="s">
-        <v>274</v>
-      </c>
-      <c r="D60" t="s">
-        <v>262</v>
-      </c>
-      <c r="E60" t="s">
-        <v>254</v>
-      </c>
-      <c r="F60" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+        <v>IVGHZN</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B61" s="2"/>
+      <c r="C61" t="s">
+        <v>263</v>
+      </c>
       <c r="D61" t="s">
-        <v>263</v>
-      </c>
-      <c r="E61" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M61" s="2"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B62" s="2"/>
+      <c r="C62" t="s">
+        <v>265</v>
+      </c>
       <c r="D62" t="s">
-        <v>265</v>
-      </c>
-      <c r="E62" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M62" s="2"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B63" s="2" t="str">
+      <c r="B63" t="s">
+        <v>275</v>
+      </c>
+      <c r="C63" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" t="s">
+        <v>254</v>
+      </c>
+      <c r="E63" t="s">
+        <v>52</v>
+      </c>
+      <c r="M63" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>GTTHQE</v>
-      </c>
-      <c r="C63" t="s">
-        <v>275</v>
-      </c>
-      <c r="D63" t="s">
-        <v>80</v>
-      </c>
-      <c r="E63" t="s">
-        <v>254</v>
-      </c>
-      <c r="F63" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+        <v>RENDXL</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B64" s="2"/>
+      <c r="C64" t="s">
+        <v>111</v>
+      </c>
       <c r="D64" t="s">
-        <v>111</v>
-      </c>
-      <c r="E64" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M64" s="2"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B65" s="2"/>
+      <c r="C65" t="s">
+        <v>92</v>
+      </c>
       <c r="D65" t="s">
-        <v>92</v>
-      </c>
-      <c r="E65" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M65" s="2"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B66" s="2"/>
+      <c r="C66" t="s">
+        <v>98</v>
+      </c>
       <c r="D66" t="s">
-        <v>98</v>
-      </c>
-      <c r="E66" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M66" s="2"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B67" s="2" t="str">
-        <f t="shared" ref="B67:B130" ca="1" si="1">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
-        <v>KELIUZ</v>
+      <c r="B67" t="s">
+        <v>276</v>
       </c>
       <c r="C67" t="s">
-        <v>276</v>
+        <v>105</v>
       </c>
       <c r="D67" t="s">
-        <v>105</v>
+        <v>254</v>
       </c>
       <c r="E67" t="s">
-        <v>254</v>
-      </c>
-      <c r="F67" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M67" s="2" t="str">
+        <f t="shared" ref="M67:M130" ca="1" si="1">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>JLATIA</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B68" s="2"/>
+      <c r="C68" t="s">
+        <v>112</v>
+      </c>
       <c r="D68" t="s">
-        <v>112</v>
-      </c>
-      <c r="E68" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M68" s="2"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
-      <c r="B69" s="2"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M69" s="2"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B70" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>NHEMPB</v>
+      <c r="B70" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H70" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M70" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>YZWPLN</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B71" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>ZISSHB</v>
+      <c r="B71" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H71" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M71" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>EYBCNW</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B72" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>UWMDYZ</v>
+      <c r="B72" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H72" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M72" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>UXXCXA</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>FJAIKR</v>
+      <c r="B73" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H73" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M73" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>NZOFAK</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>NHAPPF</v>
+      <c r="B74" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H74" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M74" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>DHODQG</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B75" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>ACYHSK</v>
+      <c r="B75" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H75" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M75" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>IPNRWF</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B76" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>GEYELQ</v>
+      <c r="B76" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G76" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M76" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>QBILPS</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B77" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>KIFQEF</v>
+      <c r="B77" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G77" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H77" t="s">
+      <c r="G77" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M77" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>KDPUIW</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B78" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>KJJFBT</v>
+      <c r="B78" t="s">
+        <v>138</v>
       </c>
       <c r="C78" t="s">
-        <v>138</v>
+        <v>49</v>
       </c>
       <c r="D78" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="E78" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
-      </c>
-      <c r="H78" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M78" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>CDVQDR</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B79" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>QZFRON</v>
+      <c r="B79" t="s">
+        <v>140</v>
       </c>
       <c r="C79" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="D79" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
-      </c>
-      <c r="H79" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M79" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OMZMKM</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B80" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>JBFPEV</v>
+      <c r="B80" t="s">
+        <v>142</v>
       </c>
       <c r="C80" t="s">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="D80" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E80" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="F80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
-      </c>
-      <c r="H80" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>PZPKSY</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B81" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>ZRIGHU</v>
+      <c r="B81" t="s">
+        <v>144</v>
       </c>
       <c r="C81" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="D81" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E81" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="F81" t="s">
-        <v>145</v>
-      </c>
-      <c r="G81" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M81" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>NJNVCE</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B82" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>NIJFJF</v>
+      <c r="B82" t="s">
+        <v>147</v>
       </c>
       <c r="C82" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="D82" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E82" t="s">
-        <v>90</v>
-      </c>
-      <c r="F82" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M82" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>BMYYBY</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B83" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>CZBOWN</v>
+      <c r="B83" t="s">
+        <v>148</v>
       </c>
       <c r="C83" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="D83" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E83" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="F83" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G83" t="s">
-        <v>150</v>
-      </c>
-      <c r="H83" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M83" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>FHYHLB</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>LZIJPX</v>
+      <c r="B84" t="s">
+        <v>152</v>
       </c>
       <c r="C84" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="D84" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E84" t="s">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="F84" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G84" t="s">
-        <v>153</v>
-      </c>
-      <c r="H84" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M84" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>TOQZPL</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B85" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>RQNFJO</v>
+      <c r="B85" t="s">
+        <v>154</v>
       </c>
       <c r="C85" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="D85" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E85" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="F85" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="G85" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H85" t="s">
-        <v>156</v>
-      </c>
-      <c r="I85" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M85" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>SDBNYR</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
-      <c r="B86" s="2"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M86" s="2"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B87" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>XJFEEY</v>
+      <c r="B87" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F87" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M87" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OEKMEM</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B88" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>VSISCW</v>
+      <c r="B88" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F88" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="F88" t="s">
+        <v>55</v>
+      </c>
       <c r="G88" t="s">
-        <v>55</v>
-      </c>
-      <c r="H88" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M88" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>KYLNQA</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B89" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>RRRUHX</v>
+      <c r="B89" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F89" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="F89" t="s">
+        <v>59</v>
+      </c>
       <c r="G89" t="s">
-        <v>59</v>
-      </c>
-      <c r="H89" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M89" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>SLHCWT</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B90" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>SVIPXJ</v>
+      <c r="B90" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F90" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G90" t="s">
+      <c r="F90" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M90" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ZBJLPM</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B91" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>SHBBJI</v>
+      <c r="B91" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F91" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G91" t="s">
+      <c r="F91" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M91" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>IJPBGO</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B92" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>GDMCRN</v>
+      <c r="B92" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F92" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G92" t="s">
+      <c r="F92" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M92" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>LAPCHM</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B93" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>TOOZYW</v>
+      <c r="B93" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F93" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G93" t="s">
+      <c r="F93" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M93" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>QMRVVJ</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B94" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>WONSNQ</v>
+      <c r="B94" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F94" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G94" t="s">
+      <c r="F94" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M94" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>GKDUFO</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B95" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>WVTIJV</v>
+      <c r="B95" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F95" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G95" t="s">
+      <c r="F95" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M95" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>PWLUOX</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B96" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>SWFODJ</v>
+      <c r="B96" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F96" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G96" t="s">
+      <c r="F96" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M96" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>LSZRUC</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B97" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>OOLATG</v>
+      <c r="B97" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F97" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G97" t="s">
+      <c r="F97" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M97" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>WDTTVE</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B98" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>DRFMYQ</v>
+      <c r="B98" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F98" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G98" t="s">
+      <c r="F98" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M98" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>KPPPHP</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B99" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>OYPCLO</v>
+      <c r="B99" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F99" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G99" t="s">
+      <c r="F99" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M99" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>PGXITL</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B100" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>IQWAPL</v>
+      <c r="B100" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F100" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="F100" t="s">
+        <v>96</v>
+      </c>
       <c r="G100" t="s">
-        <v>96</v>
-      </c>
-      <c r="H100" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M100" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>CHOQFV</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B101" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>CCBLKK</v>
+      <c r="B101" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F101" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="F101" t="s">
+        <v>102</v>
+      </c>
       <c r="G101" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H101" t="s">
-        <v>103</v>
-      </c>
-      <c r="I101" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M101" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>BWEEQB</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B102" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>EJBYUT</v>
+      <c r="B102" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F102" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="F102" t="s">
+        <v>109</v>
+      </c>
       <c r="G102" t="s">
-        <v>109</v>
-      </c>
-      <c r="H102" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M102" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>XFOWAF</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
-      <c r="B103" s="2"/>
+      <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M103" s="2"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B104" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>YTQEZX</v>
+      <c r="B104" t="s">
+        <v>114</v>
       </c>
       <c r="C104" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="D104" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="E104" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="F104" t="s">
-        <v>115</v>
-      </c>
-      <c r="G104" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M104" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>NUWLNN</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B105" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>LTOVQE</v>
+      <c r="B105" t="s">
+        <v>117</v>
       </c>
       <c r="C105" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="D105" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E105" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="F105" t="s">
-        <v>118</v>
-      </c>
-      <c r="G105" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M105" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>CNRJYE</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B106" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>QXYNTV</v>
+      <c r="B106" t="s">
+        <v>120</v>
       </c>
       <c r="C106" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D106" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E106" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="F106" t="s">
-        <v>121</v>
-      </c>
-      <c r="G106" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M106" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>EEMRYP</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B107" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>AODTWQ</v>
+      <c r="B107" t="s">
+        <v>123</v>
       </c>
       <c r="C107" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="D107" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E107" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="F107" t="s">
-        <v>124</v>
-      </c>
-      <c r="G107" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M107" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ZPTAIM</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B108" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>IJNPXJ</v>
+      <c r="B108" t="s">
+        <v>126</v>
       </c>
       <c r="C108" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="D108" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E108" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="F108" t="s">
-        <v>127</v>
-      </c>
-      <c r="G108" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M108" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ACYSMR</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B109" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>UIQVGN</v>
+      <c r="B109" t="s">
+        <v>129</v>
       </c>
       <c r="C109" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="D109" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E109" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="F109" t="s">
-        <v>130</v>
-      </c>
-      <c r="G109" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M109" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>KQBIKN</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B110" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>NWRNQR</v>
+      <c r="B110" t="s">
+        <v>132</v>
       </c>
       <c r="C110" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="D110" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E110" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="F110" t="s">
-        <v>133</v>
-      </c>
-      <c r="G110" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M110" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>MCEBIW</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B111" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>EEOBWP</v>
+      <c r="B111" t="s">
+        <v>135</v>
       </c>
       <c r="C111" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="D111" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E111" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="F111" t="s">
-        <v>136</v>
-      </c>
-      <c r="G111" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M111" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>MVUWQB</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B112" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>ACEFVG</v>
+      <c r="B112" t="s">
+        <v>158</v>
       </c>
       <c r="C112" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="D112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E112" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="F112" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G112" t="s">
-        <v>160</v>
-      </c>
-      <c r="H112" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M112" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>IKSJFC</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B113" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>GQUEWD</v>
+      <c r="B113" t="s">
+        <v>162</v>
       </c>
       <c r="C113" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="D113" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E113" t="s">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="F113" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G113" t="s">
-        <v>160</v>
-      </c>
-      <c r="H113" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M113" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>PJBARH</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B114" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>NUGZQP</v>
+      <c r="B114" t="s">
+        <v>164</v>
       </c>
       <c r="C114" t="s">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="D114" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E114" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="F114" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G114" t="s">
-        <v>166</v>
-      </c>
-      <c r="H114" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M114" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ZDAQBR</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B115" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>ZBNKEM</v>
+      <c r="B115" t="s">
+        <v>168</v>
       </c>
       <c r="C115" t="s">
-        <v>168</v>
+        <v>26</v>
       </c>
       <c r="D115" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E115" t="s">
-        <v>28</v>
-      </c>
-      <c r="F115" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M115" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>FUMRVY</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B116" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>GASZYD</v>
+      <c r="B116" t="s">
+        <v>169</v>
       </c>
       <c r="C116" t="s">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="D116" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E116" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="F116" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G116" t="s">
-        <v>166</v>
-      </c>
-      <c r="H116" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M116" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>XSZJLU</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B117" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>UYOMKN</v>
+      <c r="B117" t="s">
+        <v>171</v>
       </c>
       <c r="C117" t="s">
-        <v>171</v>
+        <v>36</v>
       </c>
       <c r="D117" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E117" t="s">
-        <v>38</v>
-      </c>
-      <c r="F117" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M117" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>SCFRPI</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B118" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>SBUEGJ</v>
+      <c r="B118" t="s">
+        <v>172</v>
       </c>
       <c r="C118" t="s">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="D118" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E118" t="s">
-        <v>42</v>
-      </c>
-      <c r="F118" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M118" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>UJHXJI</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B119" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>SYZEHQ</v>
+      <c r="B119" t="s">
+        <v>173</v>
       </c>
       <c r="C119" t="s">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="D119" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E119" t="s">
-        <v>47</v>
+        <v>174</v>
       </c>
       <c r="F119" t="s">
-        <v>174</v>
-      </c>
-      <c r="G119" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M119" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>QZHVTG</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
-      <c r="B120" s="2"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M120" s="2"/>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B121" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>GGZPUC</v>
+      <c r="B121" t="s">
+        <v>278</v>
       </c>
       <c r="C121" t="s">
-        <v>278</v>
+        <v>11</v>
       </c>
       <c r="D121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E121" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="F121" t="s">
-        <v>279</v>
-      </c>
-      <c r="G121" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M121" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>BRPZDK</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B122" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>GYMLPK</v>
+      <c r="B122" t="s">
+        <v>281</v>
       </c>
       <c r="C122" t="s">
-        <v>281</v>
+        <v>16</v>
       </c>
       <c r="D122" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E122" t="s">
-        <v>18</v>
+        <v>282</v>
       </c>
       <c r="F122" t="s">
-        <v>282</v>
-      </c>
-      <c r="G122" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M122" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>XPEOVE</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B123" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>IDBVMQ</v>
+      <c r="B123" t="s">
+        <v>284</v>
       </c>
       <c r="C123" t="s">
-        <v>284</v>
+        <v>22</v>
       </c>
       <c r="D123" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E123" t="s">
-        <v>24</v>
+        <v>285</v>
       </c>
       <c r="F123" t="s">
-        <v>285</v>
-      </c>
-      <c r="G123" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M123" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>DQOEJQ</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B124" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>KMPXZM</v>
+      <c r="B124" t="s">
+        <v>287</v>
       </c>
       <c r="C124" t="s">
-        <v>287</v>
+        <v>26</v>
       </c>
       <c r="D124" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E124" t="s">
-        <v>28</v>
+        <v>288</v>
       </c>
       <c r="F124" t="s">
-        <v>288</v>
-      </c>
-      <c r="G124" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M124" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>DTVIEV</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B125" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>JUNDUC</v>
+      <c r="B125" t="s">
+        <v>290</v>
       </c>
       <c r="C125" t="s">
-        <v>290</v>
+        <v>32</v>
       </c>
       <c r="D125" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E125" t="s">
-        <v>34</v>
+        <v>291</v>
       </c>
       <c r="F125" t="s">
-        <v>291</v>
-      </c>
-      <c r="G125" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M125" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>MNVFUR</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B126" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>RCXBFZ</v>
+      <c r="B126" t="s">
+        <v>292</v>
       </c>
       <c r="C126" t="s">
-        <v>292</v>
+        <v>36</v>
       </c>
       <c r="D126" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E126" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="F126" t="s">
-        <v>293</v>
-      </c>
-      <c r="G126" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M126" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>VYKCWN</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B127" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>CRWZVP</v>
+      <c r="B127" t="s">
+        <v>294</v>
       </c>
       <c r="C127" t="s">
-        <v>294</v>
+        <v>40</v>
       </c>
       <c r="D127" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E127" t="s">
-        <v>42</v>
+        <v>295</v>
       </c>
       <c r="F127" t="s">
-        <v>295</v>
-      </c>
-      <c r="G127" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="M127" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>UYXBFL</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B128" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>BGUYAH</v>
+      <c r="B128" t="s">
+        <v>296</v>
       </c>
       <c r="C128" t="s">
-        <v>296</v>
+        <v>45</v>
       </c>
       <c r="D128" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E128" t="s">
-        <v>47</v>
+        <v>297</v>
       </c>
       <c r="F128" t="s">
-        <v>297</v>
-      </c>
-      <c r="G128" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M128" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>XQBGWI</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B129" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>IOUJYB</v>
+      <c r="B129" t="s">
+        <v>298</v>
       </c>
       <c r="C129" t="s">
-        <v>298</v>
+        <v>49</v>
       </c>
       <c r="D129" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="E129" t="s">
-        <v>74</v>
+        <v>299</v>
       </c>
       <c r="F129" t="s">
-        <v>299</v>
-      </c>
-      <c r="G129" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M129" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>IGLLOU</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B130" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>LTTDNZ</v>
+      <c r="B130" t="s">
+        <v>300</v>
       </c>
       <c r="C130" t="s">
-        <v>300</v>
+        <v>76</v>
       </c>
       <c r="D130" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E130" t="s">
-        <v>78</v>
+        <v>301</v>
       </c>
       <c r="F130" t="s">
-        <v>301</v>
-      </c>
-      <c r="G130" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M130" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>DVERYC</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B131" s="2" t="str">
-        <f t="shared" ref="B131:B187" ca="1" si="2">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
-        <v>JROPNU</v>
+      <c r="B131" t="s">
+        <v>302</v>
       </c>
       <c r="C131" t="s">
-        <v>302</v>
+        <v>80</v>
       </c>
       <c r="D131" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E131" t="s">
-        <v>82</v>
+        <v>303</v>
       </c>
       <c r="F131" t="s">
-        <v>303</v>
-      </c>
-      <c r="G131" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M131" s="2" t="str">
+        <f t="shared" ref="M131:M187" ca="1" si="2">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>DNRUTR</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B132" s="2" t="str">
+      <c r="B132" t="s">
+        <v>304</v>
+      </c>
+      <c r="C132" t="s">
+        <v>84</v>
+      </c>
+      <c r="D132" t="s">
+        <v>86</v>
+      </c>
+      <c r="E132" t="s">
+        <v>305</v>
+      </c>
+      <c r="F132" t="s">
+        <v>289</v>
+      </c>
+      <c r="M132" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>PYHMGT</v>
-      </c>
-      <c r="C132" t="s">
-        <v>304</v>
-      </c>
-      <c r="D132" t="s">
-        <v>84</v>
-      </c>
-      <c r="E132" t="s">
-        <v>86</v>
-      </c>
-      <c r="F132" t="s">
-        <v>305</v>
-      </c>
-      <c r="G132" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+        <v>WVYIDA</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B133" s="2" t="str">
+      <c r="B133" t="s">
+        <v>306</v>
+      </c>
+      <c r="C133" t="s">
+        <v>88</v>
+      </c>
+      <c r="D133" t="s">
+        <v>90</v>
+      </c>
+      <c r="E133" t="s">
+        <v>288</v>
+      </c>
+      <c r="F133" t="s">
+        <v>307</v>
+      </c>
+      <c r="M133" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>QGFWTJ</v>
-      </c>
-      <c r="C133" t="s">
-        <v>306</v>
-      </c>
-      <c r="D133" t="s">
-        <v>88</v>
-      </c>
-      <c r="E133" t="s">
-        <v>90</v>
-      </c>
-      <c r="F133" t="s">
-        <v>288</v>
-      </c>
-      <c r="G133" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+        <v>LDBDJT</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B134" s="2" t="str">
+      <c r="B134" t="s">
+        <v>308</v>
+      </c>
+      <c r="C134" t="s">
+        <v>92</v>
+      </c>
+      <c r="D134" t="s">
+        <v>94</v>
+      </c>
+      <c r="E134" t="s">
+        <v>291</v>
+      </c>
+      <c r="F134" t="s">
+        <v>307</v>
+      </c>
+      <c r="M134" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>SIYJTD</v>
-      </c>
-      <c r="C134" t="s">
-        <v>308</v>
-      </c>
-      <c r="D134" t="s">
-        <v>92</v>
-      </c>
-      <c r="E134" t="s">
-        <v>94</v>
-      </c>
-      <c r="F134" t="s">
-        <v>291</v>
-      </c>
-      <c r="G134" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+        <v>CXVMZL</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B135" s="2" t="str">
+      <c r="B135" t="s">
+        <v>309</v>
+      </c>
+      <c r="C135" t="s">
+        <v>98</v>
+      </c>
+      <c r="D135" t="s">
+        <v>100</v>
+      </c>
+      <c r="E135" t="s">
+        <v>293</v>
+      </c>
+      <c r="F135" t="s">
+        <v>307</v>
+      </c>
+      <c r="M135" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>QEHOIU</v>
-      </c>
-      <c r="C135" t="s">
-        <v>309</v>
-      </c>
-      <c r="D135" t="s">
-        <v>98</v>
-      </c>
-      <c r="E135" t="s">
-        <v>100</v>
-      </c>
-      <c r="F135" t="s">
-        <v>293</v>
-      </c>
-      <c r="G135" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+        <v>NMXXKV</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B136" s="2" t="str">
+      <c r="B136" t="s">
+        <v>310</v>
+      </c>
+      <c r="C136" t="s">
+        <v>105</v>
+      </c>
+      <c r="D136" t="s">
+        <v>107</v>
+      </c>
+      <c r="E136" t="s">
+        <v>295</v>
+      </c>
+      <c r="F136" t="s">
+        <v>307</v>
+      </c>
+      <c r="M136" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>JZTIUK</v>
-      </c>
-      <c r="C136" t="s">
-        <v>310</v>
-      </c>
-      <c r="D136" t="s">
-        <v>105</v>
-      </c>
-      <c r="E136" t="s">
-        <v>107</v>
-      </c>
-      <c r="F136" t="s">
-        <v>295</v>
-      </c>
-      <c r="G136" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+        <v>HKDOLH</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
-      <c r="B137" s="2"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M137" s="2"/>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B138" s="2" t="str">
+      <c r="B138" t="s">
+        <v>312</v>
+      </c>
+      <c r="C138" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138" t="s">
+        <v>297</v>
+      </c>
+      <c r="F138" t="s">
+        <v>307</v>
+      </c>
+      <c r="M138" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>KZPUXC</v>
-      </c>
-      <c r="C138" t="s">
-        <v>312</v>
-      </c>
-      <c r="D138" t="s">
-        <v>11</v>
-      </c>
-      <c r="E138" t="s">
-        <v>12</v>
-      </c>
-      <c r="F138" t="s">
-        <v>297</v>
-      </c>
-      <c r="G138" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+        <v>HHYNIT</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B139" s="2" t="str">
+      <c r="B139" t="s">
+        <v>313</v>
+      </c>
+      <c r="C139" t="s">
+        <v>16</v>
+      </c>
+      <c r="D139" t="s">
+        <v>18</v>
+      </c>
+      <c r="E139" t="s">
+        <v>299</v>
+      </c>
+      <c r="F139" t="s">
+        <v>307</v>
+      </c>
+      <c r="M139" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>JAODRF</v>
-      </c>
-      <c r="C139" t="s">
-        <v>313</v>
-      </c>
-      <c r="D139" t="s">
-        <v>16</v>
-      </c>
-      <c r="E139" t="s">
-        <v>18</v>
-      </c>
-      <c r="F139" t="s">
-        <v>299</v>
-      </c>
-      <c r="G139" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+        <v>IBJOPO</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B140" s="2" t="str">
+      <c r="B140" t="s">
+        <v>314</v>
+      </c>
+      <c r="C140" t="s">
+        <v>22</v>
+      </c>
+      <c r="D140" t="s">
+        <v>24</v>
+      </c>
+      <c r="E140" t="s">
+        <v>301</v>
+      </c>
+      <c r="F140" t="s">
+        <v>307</v>
+      </c>
+      <c r="M140" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>RJGWVP</v>
-      </c>
-      <c r="C140" t="s">
-        <v>314</v>
-      </c>
-      <c r="D140" t="s">
-        <v>22</v>
-      </c>
-      <c r="E140" t="s">
-        <v>24</v>
-      </c>
-      <c r="F140" t="s">
-        <v>301</v>
-      </c>
-      <c r="G140" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+        <v>OHEVMC</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B141" s="2" t="str">
+      <c r="B141" t="s">
+        <v>315</v>
+      </c>
+      <c r="C141" t="s">
+        <v>26</v>
+      </c>
+      <c r="D141" t="s">
+        <v>28</v>
+      </c>
+      <c r="E141" t="s">
+        <v>303</v>
+      </c>
+      <c r="F141" t="s">
+        <v>307</v>
+      </c>
+      <c r="M141" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>WXSTPA</v>
-      </c>
-      <c r="C141" t="s">
-        <v>315</v>
-      </c>
-      <c r="D141" t="s">
-        <v>26</v>
-      </c>
-      <c r="E141" t="s">
-        <v>28</v>
-      </c>
-      <c r="F141" t="s">
-        <v>303</v>
-      </c>
-      <c r="G141" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+        <v>ALUSBZ</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B142" s="2" t="str">
+      <c r="B142" t="s">
+        <v>316</v>
+      </c>
+      <c r="C142" t="s">
+        <v>32</v>
+      </c>
+      <c r="D142" t="s">
+        <v>34</v>
+      </c>
+      <c r="E142" t="s">
+        <v>305</v>
+      </c>
+      <c r="F142" t="s">
+        <v>307</v>
+      </c>
+      <c r="M142" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NKVFOY</v>
-      </c>
-      <c r="C142" t="s">
-        <v>316</v>
-      </c>
-      <c r="D142" t="s">
-        <v>32</v>
-      </c>
-      <c r="E142" t="s">
-        <v>34</v>
-      </c>
-      <c r="F142" t="s">
-        <v>305</v>
-      </c>
-      <c r="G142" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+        <v>GLQGAP</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B143" s="2" t="str">
+      <c r="B143" t="s">
+        <v>317</v>
+      </c>
+      <c r="C143" t="s">
+        <v>36</v>
+      </c>
+      <c r="D143" t="s">
+        <v>38</v>
+      </c>
+      <c r="E143" t="s">
+        <v>318</v>
+      </c>
+      <c r="F143" t="s">
+        <v>289</v>
+      </c>
+      <c r="M143" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>BTYMLT</v>
-      </c>
-      <c r="C143" t="s">
-        <v>317</v>
-      </c>
-      <c r="D143" t="s">
-        <v>36</v>
-      </c>
-      <c r="E143" t="s">
-        <v>38</v>
-      </c>
-      <c r="F143" t="s">
-        <v>318</v>
-      </c>
-      <c r="G143" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+        <v>LQOGBY</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B144" s="2" t="str">
+      <c r="B144" t="s">
+        <v>319</v>
+      </c>
+      <c r="C144" t="s">
+        <v>40</v>
+      </c>
+      <c r="D144" t="s">
+        <v>42</v>
+      </c>
+      <c r="E144" t="s">
+        <v>320</v>
+      </c>
+      <c r="F144" t="s">
+        <v>289</v>
+      </c>
+      <c r="M144" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>ZPPZME</v>
-      </c>
-      <c r="C144" t="s">
-        <v>319</v>
-      </c>
-      <c r="D144" t="s">
-        <v>40</v>
-      </c>
-      <c r="E144" t="s">
-        <v>42</v>
-      </c>
-      <c r="F144" t="s">
-        <v>320</v>
-      </c>
-      <c r="G144" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+        <v>PJZEPJ</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B145" s="2" t="str">
+      <c r="B145" t="s">
+        <v>321</v>
+      </c>
+      <c r="C145" t="s">
+        <v>45</v>
+      </c>
+      <c r="D145" t="s">
+        <v>47</v>
+      </c>
+      <c r="E145" t="s">
+        <v>322</v>
+      </c>
+      <c r="F145" t="s">
+        <v>289</v>
+      </c>
+      <c r="M145" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>HIGBCI</v>
-      </c>
-      <c r="C145" t="s">
-        <v>321</v>
-      </c>
-      <c r="D145" t="s">
-        <v>45</v>
-      </c>
-      <c r="E145" t="s">
-        <v>47</v>
-      </c>
-      <c r="F145" t="s">
-        <v>322</v>
-      </c>
-      <c r="G145" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+        <v>AXDOFY</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B146" s="2" t="str">
+      <c r="B146" t="s">
+        <v>377</v>
+      </c>
+      <c r="C146" t="s">
+        <v>49</v>
+      </c>
+      <c r="D146" t="s">
+        <v>74</v>
+      </c>
+      <c r="E146" t="s">
+        <v>378</v>
+      </c>
+      <c r="F146" t="s">
+        <v>289</v>
+      </c>
+      <c r="M146" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>ZPVXTX</v>
-      </c>
-      <c r="C146" t="s">
-        <v>377</v>
-      </c>
-      <c r="D146" t="s">
-        <v>49</v>
-      </c>
-      <c r="E146" t="s">
-        <v>74</v>
-      </c>
-      <c r="F146" t="s">
-        <v>378</v>
-      </c>
-      <c r="G146" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+        <v>HYMFVT</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B147" s="2" t="str">
+      <c r="B147" t="s">
+        <v>379</v>
+      </c>
+      <c r="C147" t="s">
+        <v>76</v>
+      </c>
+      <c r="D147" t="s">
+        <v>78</v>
+      </c>
+      <c r="E147" t="s">
+        <v>380</v>
+      </c>
+      <c r="M147" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>BANUQM</v>
-      </c>
-      <c r="C147" t="s">
-        <v>379</v>
-      </c>
-      <c r="D147" t="s">
-        <v>76</v>
-      </c>
-      <c r="E147" t="s">
-        <v>78</v>
-      </c>
-      <c r="F147" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+        <v>EHHMBW</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B148" s="2" t="str">
+      <c r="B148" t="s">
+        <v>381</v>
+      </c>
+      <c r="C148" t="s">
+        <v>80</v>
+      </c>
+      <c r="D148" t="s">
+        <v>82</v>
+      </c>
+      <c r="E148" t="s">
+        <v>52</v>
+      </c>
+      <c r="M148" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>QTBSXV</v>
-      </c>
-      <c r="C148" t="s">
-        <v>381</v>
-      </c>
-      <c r="D148" t="s">
-        <v>80</v>
-      </c>
-      <c r="E148" t="s">
-        <v>82</v>
-      </c>
-      <c r="F148" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+        <v>JKIOSH</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B149" s="2" t="str">
+      <c r="B149" t="s">
+        <v>382</v>
+      </c>
+      <c r="C149" t="s">
+        <v>84</v>
+      </c>
+      <c r="D149" t="s">
+        <v>86</v>
+      </c>
+      <c r="E149" t="s">
+        <v>52</v>
+      </c>
+      <c r="M149" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>OYMECK</v>
-      </c>
-      <c r="C149" t="s">
-        <v>382</v>
-      </c>
-      <c r="D149" t="s">
-        <v>84</v>
-      </c>
-      <c r="E149" t="s">
-        <v>86</v>
-      </c>
-      <c r="F149" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+        <v>TERUQL</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B150" s="2" t="str">
+      <c r="B150" t="s">
+        <v>383</v>
+      </c>
+      <c r="C150" t="s">
+        <v>88</v>
+      </c>
+      <c r="D150" t="s">
+        <v>90</v>
+      </c>
+      <c r="E150" t="s">
+        <v>52</v>
+      </c>
+      <c r="M150" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>IDUUKK</v>
-      </c>
-      <c r="C150" t="s">
-        <v>383</v>
-      </c>
-      <c r="D150" t="s">
-        <v>88</v>
-      </c>
-      <c r="E150" t="s">
-        <v>90</v>
-      </c>
-      <c r="F150" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+        <v>QIBGRC</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B151" s="2" t="str">
+      <c r="B151" t="s">
+        <v>384</v>
+      </c>
+      <c r="C151" t="s">
+        <v>92</v>
+      </c>
+      <c r="D151" t="s">
+        <v>94</v>
+      </c>
+      <c r="E151" t="s">
+        <v>52</v>
+      </c>
+      <c r="M151" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>DRSPKI</v>
-      </c>
-      <c r="C151" t="s">
-        <v>384</v>
-      </c>
-      <c r="D151" t="s">
-        <v>92</v>
-      </c>
-      <c r="E151" t="s">
-        <v>94</v>
-      </c>
-      <c r="F151" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+        <v>AYUAAP</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B152" s="2" t="str">
+      <c r="B152" t="s">
+        <v>385</v>
+      </c>
+      <c r="C152" t="s">
+        <v>98</v>
+      </c>
+      <c r="D152" t="s">
+        <v>100</v>
+      </c>
+      <c r="E152" t="s">
+        <v>52</v>
+      </c>
+      <c r="M152" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>UNLBIL</v>
-      </c>
-      <c r="C152" t="s">
-        <v>385</v>
-      </c>
-      <c r="D152" t="s">
-        <v>98</v>
-      </c>
-      <c r="E152" t="s">
-        <v>100</v>
-      </c>
-      <c r="F152" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+        <v>RPUSWZ</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B153" s="2" t="str">
+      <c r="B153" t="s">
+        <v>386</v>
+      </c>
+      <c r="C153" t="s">
+        <v>105</v>
+      </c>
+      <c r="D153" t="s">
+        <v>107</v>
+      </c>
+      <c r="E153" t="s">
+        <v>52</v>
+      </c>
+      <c r="M153" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>PRGDEY</v>
-      </c>
-      <c r="C153" t="s">
-        <v>386</v>
-      </c>
-      <c r="D153" t="s">
-        <v>105</v>
-      </c>
-      <c r="E153" t="s">
-        <v>107</v>
-      </c>
-      <c r="F153" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+        <v>AORWUK</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
-      <c r="B154" s="2"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M154" s="2"/>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B155" s="2" t="str">
+      <c r="B155" t="s">
+        <v>177</v>
+      </c>
+      <c r="C155" t="s">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s">
+        <v>178</v>
+      </c>
+      <c r="E155" t="s">
+        <v>179</v>
+      </c>
+      <c r="F155" t="s">
+        <v>180</v>
+      </c>
+      <c r="G155" t="s">
+        <v>181</v>
+      </c>
+      <c r="H155" t="s">
+        <v>182</v>
+      </c>
+      <c r="M155" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NVECPW</v>
-      </c>
-      <c r="C155" t="s">
-        <v>177</v>
-      </c>
-      <c r="D155" t="s">
-        <v>11</v>
-      </c>
-      <c r="E155" t="s">
-        <v>178</v>
-      </c>
-      <c r="F155" t="s">
-        <v>179</v>
-      </c>
-      <c r="G155" t="s">
-        <v>180</v>
-      </c>
-      <c r="H155" t="s">
-        <v>181</v>
-      </c>
-      <c r="I155" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+        <v>KHDUYA</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B156" s="2" t="str">
+      <c r="B156" t="s">
+        <v>183</v>
+      </c>
+      <c r="C156" t="s">
+        <v>16</v>
+      </c>
+      <c r="D156" t="s">
+        <v>184</v>
+      </c>
+      <c r="E156" t="s">
+        <v>185</v>
+      </c>
+      <c r="F156" t="s">
+        <v>186</v>
+      </c>
+      <c r="G156" t="s">
+        <v>187</v>
+      </c>
+      <c r="M156" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>LOAYNW</v>
-      </c>
-      <c r="C156" t="s">
-        <v>183</v>
-      </c>
-      <c r="D156" t="s">
-        <v>16</v>
-      </c>
-      <c r="E156" t="s">
-        <v>184</v>
-      </c>
-      <c r="F156" t="s">
-        <v>185</v>
-      </c>
-      <c r="G156" t="s">
-        <v>186</v>
-      </c>
-      <c r="H156" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+        <v>RZBLID</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B157" s="2" t="str">
+      <c r="B157" t="s">
+        <v>188</v>
+      </c>
+      <c r="C157" t="s">
+        <v>22</v>
+      </c>
+      <c r="D157" t="s">
+        <v>189</v>
+      </c>
+      <c r="E157" t="s">
+        <v>190</v>
+      </c>
+      <c r="F157" t="s">
+        <v>64</v>
+      </c>
+      <c r="G157" t="s">
+        <v>191</v>
+      </c>
+      <c r="M157" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TJYGCB</v>
-      </c>
-      <c r="C157" t="s">
-        <v>188</v>
-      </c>
-      <c r="D157" t="s">
-        <v>22</v>
-      </c>
-      <c r="E157" t="s">
-        <v>189</v>
-      </c>
-      <c r="F157" t="s">
-        <v>190</v>
-      </c>
-      <c r="G157" t="s">
-        <v>64</v>
-      </c>
-      <c r="H157" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+        <v>UZLXDI</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B158" s="2" t="str">
+      <c r="B158" t="s">
+        <v>192</v>
+      </c>
+      <c r="C158" t="s">
+        <v>26</v>
+      </c>
+      <c r="D158" t="s">
+        <v>193</v>
+      </c>
+      <c r="E158" t="s">
+        <v>194</v>
+      </c>
+      <c r="F158" t="s">
+        <v>62</v>
+      </c>
+      <c r="G158" t="s">
+        <v>195</v>
+      </c>
+      <c r="M158" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>GMUEQN</v>
-      </c>
-      <c r="C158" t="s">
-        <v>192</v>
-      </c>
-      <c r="D158" t="s">
-        <v>26</v>
-      </c>
-      <c r="E158" t="s">
-        <v>193</v>
-      </c>
-      <c r="F158" t="s">
-        <v>194</v>
-      </c>
-      <c r="G158" t="s">
-        <v>62</v>
-      </c>
-      <c r="H158" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+        <v>RVPWKT</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B159" s="2" t="str">
+      <c r="B159" t="s">
+        <v>196</v>
+      </c>
+      <c r="C159" t="s">
+        <v>32</v>
+      </c>
+      <c r="D159" t="s">
+        <v>197</v>
+      </c>
+      <c r="E159" t="s">
+        <v>198</v>
+      </c>
+      <c r="F159" t="s">
+        <v>69</v>
+      </c>
+      <c r="G159" t="s">
+        <v>199</v>
+      </c>
+      <c r="M159" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NSRVYD</v>
-      </c>
-      <c r="C159" t="s">
-        <v>196</v>
-      </c>
-      <c r="D159" t="s">
-        <v>32</v>
-      </c>
-      <c r="E159" t="s">
-        <v>197</v>
-      </c>
-      <c r="F159" t="s">
-        <v>198</v>
-      </c>
-      <c r="G159" t="s">
-        <v>69</v>
-      </c>
-      <c r="H159" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+        <v>LHZCCG</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B160" s="2" t="str">
+      <c r="B160" t="s">
+        <v>200</v>
+      </c>
+      <c r="C160" t="s">
+        <v>36</v>
+      </c>
+      <c r="D160" t="s">
+        <v>201</v>
+      </c>
+      <c r="E160" t="s">
+        <v>202</v>
+      </c>
+      <c r="F160" t="s">
+        <v>67</v>
+      </c>
+      <c r="G160" t="s">
+        <v>203</v>
+      </c>
+      <c r="M160" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>WMGVHK</v>
-      </c>
-      <c r="C160" t="s">
-        <v>200</v>
-      </c>
-      <c r="D160" t="s">
-        <v>36</v>
-      </c>
-      <c r="E160" t="s">
-        <v>201</v>
-      </c>
-      <c r="F160" t="s">
-        <v>202</v>
-      </c>
-      <c r="G160" t="s">
-        <v>67</v>
-      </c>
-      <c r="H160" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+        <v>CANZDC</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B161" s="2" t="str">
+      <c r="B161" t="s">
+        <v>204</v>
+      </c>
+      <c r="C161" t="s">
+        <v>40</v>
+      </c>
+      <c r="D161" t="s">
+        <v>205</v>
+      </c>
+      <c r="E161" t="s">
+        <v>206</v>
+      </c>
+      <c r="M161" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>WEDZWO</v>
-      </c>
-      <c r="C161" t="s">
-        <v>204</v>
-      </c>
-      <c r="D161" t="s">
-        <v>40</v>
-      </c>
-      <c r="E161" t="s">
-        <v>205</v>
-      </c>
-      <c r="F161" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+        <v>YSCWWG</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B162" s="2" t="str">
+      <c r="B162" t="s">
+        <v>207</v>
+      </c>
+      <c r="C162" t="s">
+        <v>45</v>
+      </c>
+      <c r="D162" t="s">
+        <v>208</v>
+      </c>
+      <c r="E162" t="s">
+        <v>209</v>
+      </c>
+      <c r="M162" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>JLFABM</v>
-      </c>
-      <c r="C162" t="s">
-        <v>207</v>
-      </c>
-      <c r="D162" t="s">
-        <v>45</v>
-      </c>
-      <c r="E162" t="s">
-        <v>208</v>
-      </c>
-      <c r="F162" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+        <v>VTSFHM</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B163" s="2" t="str">
+      <c r="B163" t="s">
+        <v>210</v>
+      </c>
+      <c r="C163" t="s">
+        <v>49</v>
+      </c>
+      <c r="D163" t="s">
+        <v>211</v>
+      </c>
+      <c r="E163" t="s">
+        <v>212</v>
+      </c>
+      <c r="M163" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>PVYZGP</v>
-      </c>
-      <c r="C163" t="s">
-        <v>210</v>
-      </c>
-      <c r="D163" t="s">
-        <v>49</v>
-      </c>
-      <c r="E163" t="s">
-        <v>211</v>
-      </c>
-      <c r="F163" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+        <v>WBXIMP</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B164" s="2" t="str">
+      <c r="B164" t="s">
+        <v>213</v>
+      </c>
+      <c r="C164" t="s">
+        <v>76</v>
+      </c>
+      <c r="D164" t="s">
+        <v>214</v>
+      </c>
+      <c r="E164" t="s">
+        <v>215</v>
+      </c>
+      <c r="M164" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>OYMCWY</v>
-      </c>
-      <c r="C164" t="s">
-        <v>213</v>
-      </c>
-      <c r="D164" t="s">
-        <v>76</v>
-      </c>
-      <c r="E164" t="s">
-        <v>214</v>
-      </c>
-      <c r="F164" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+        <v>TTTBYS</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B165" s="2" t="str">
+      <c r="B165" t="s">
+        <v>216</v>
+      </c>
+      <c r="C165" t="s">
+        <v>80</v>
+      </c>
+      <c r="D165" t="s">
+        <v>217</v>
+      </c>
+      <c r="E165" t="s">
+        <v>218</v>
+      </c>
+      <c r="M165" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>BPWNQH</v>
-      </c>
-      <c r="C165" t="s">
-        <v>216</v>
-      </c>
-      <c r="D165" t="s">
-        <v>80</v>
-      </c>
-      <c r="E165" t="s">
-        <v>217</v>
-      </c>
-      <c r="F165" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+        <v>BHRKVK</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B166" s="2" t="str">
+      <c r="B166" t="s">
+        <v>219</v>
+      </c>
+      <c r="C166" t="s">
+        <v>84</v>
+      </c>
+      <c r="D166" t="s">
+        <v>220</v>
+      </c>
+      <c r="E166" t="s">
+        <v>221</v>
+      </c>
+      <c r="M166" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>JYUNMA</v>
-      </c>
-      <c r="C166" t="s">
-        <v>219</v>
-      </c>
-      <c r="D166" t="s">
-        <v>84</v>
-      </c>
-      <c r="E166" t="s">
-        <v>220</v>
-      </c>
-      <c r="F166" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+        <v>OBUFMX</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B167" s="2" t="str">
+      <c r="B167" t="s">
+        <v>222</v>
+      </c>
+      <c r="C167" t="s">
+        <v>88</v>
+      </c>
+      <c r="D167" t="s">
+        <v>223</v>
+      </c>
+      <c r="E167" t="s">
+        <v>52</v>
+      </c>
+      <c r="M167" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>SZZDAG</v>
-      </c>
-      <c r="C167" t="s">
-        <v>222</v>
-      </c>
-      <c r="D167" t="s">
-        <v>88</v>
-      </c>
-      <c r="E167" t="s">
-        <v>223</v>
-      </c>
-      <c r="F167" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+        <v>PGFURH</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B168" s="2" t="str">
+      <c r="B168" t="s">
+        <v>224</v>
+      </c>
+      <c r="C168" t="s">
+        <v>92</v>
+      </c>
+      <c r="D168" t="s">
+        <v>225</v>
+      </c>
+      <c r="E168" t="s">
+        <v>52</v>
+      </c>
+      <c r="M168" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>EDJYYA</v>
-      </c>
-      <c r="C168" t="s">
-        <v>224</v>
-      </c>
-      <c r="D168" t="s">
-        <v>92</v>
-      </c>
-      <c r="E168" t="s">
-        <v>225</v>
-      </c>
-      <c r="F168" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+        <v>RXNMHS</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B169" s="2" t="str">
+      <c r="B169" t="s">
+        <v>226</v>
+      </c>
+      <c r="C169" t="s">
+        <v>98</v>
+      </c>
+      <c r="D169" t="s">
+        <v>227</v>
+      </c>
+      <c r="E169" t="s">
+        <v>228</v>
+      </c>
+      <c r="F169" t="s">
+        <v>141</v>
+      </c>
+      <c r="M169" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>EZFUHV</v>
-      </c>
-      <c r="C169" t="s">
-        <v>226</v>
-      </c>
-      <c r="D169" t="s">
-        <v>98</v>
-      </c>
-      <c r="E169" t="s">
-        <v>227</v>
-      </c>
-      <c r="F169" t="s">
-        <v>228</v>
-      </c>
-      <c r="G169" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+        <v>VQICJL</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B170" s="2" t="str">
+      <c r="B170" t="s">
+        <v>229</v>
+      </c>
+      <c r="C170" t="s">
+        <v>105</v>
+      </c>
+      <c r="D170" t="s">
+        <v>230</v>
+      </c>
+      <c r="E170" t="s">
+        <v>228</v>
+      </c>
+      <c r="F170" t="s">
+        <v>139</v>
+      </c>
+      <c r="M170" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>BWMWWV</v>
-      </c>
-      <c r="C170" t="s">
-        <v>229</v>
-      </c>
-      <c r="D170" t="s">
-        <v>105</v>
-      </c>
-      <c r="E170" t="s">
-        <v>230</v>
-      </c>
-      <c r="F170" t="s">
-        <v>228</v>
-      </c>
-      <c r="G170" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+        <v>LYQZCD</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
-      <c r="B171" s="2"/>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M171" s="2"/>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B172" s="2" t="str">
+      <c r="B172" t="s">
+        <v>232</v>
+      </c>
+      <c r="C172" t="s">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s">
+        <v>178</v>
+      </c>
+      <c r="E172" t="s">
+        <v>228</v>
+      </c>
+      <c r="F172" t="s">
+        <v>143</v>
+      </c>
+      <c r="M172" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>MFVQXL</v>
-      </c>
-      <c r="C172" t="s">
-        <v>232</v>
-      </c>
-      <c r="D172" t="s">
-        <v>11</v>
-      </c>
-      <c r="E172" t="s">
-        <v>178</v>
-      </c>
-      <c r="F172" t="s">
-        <v>228</v>
-      </c>
-      <c r="G172" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+        <v>LTKEVX</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B173" s="2" t="str">
+      <c r="B173" t="s">
+        <v>233</v>
+      </c>
+      <c r="C173" t="s">
+        <v>16</v>
+      </c>
+      <c r="D173" t="s">
+        <v>184</v>
+      </c>
+      <c r="E173" t="s">
+        <v>228</v>
+      </c>
+      <c r="F173" t="s">
+        <v>234</v>
+      </c>
+      <c r="M173" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AQXZOO</v>
-      </c>
-      <c r="C173" t="s">
-        <v>233</v>
-      </c>
-      <c r="D173" t="s">
-        <v>16</v>
-      </c>
-      <c r="E173" t="s">
-        <v>184</v>
-      </c>
-      <c r="F173" t="s">
-        <v>228</v>
-      </c>
-      <c r="G173" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+        <v>DZFYOJ</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B174" s="2" t="str">
+      <c r="B174" t="s">
+        <v>235</v>
+      </c>
+      <c r="C174" t="s">
+        <v>22</v>
+      </c>
+      <c r="D174" t="s">
+        <v>189</v>
+      </c>
+      <c r="E174" t="s">
+        <v>236</v>
+      </c>
+      <c r="F174" t="s">
+        <v>237</v>
+      </c>
+      <c r="G174" t="s">
+        <v>238</v>
+      </c>
+      <c r="M174" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>PLNJKU</v>
-      </c>
-      <c r="C174" t="s">
-        <v>235</v>
-      </c>
-      <c r="D174" t="s">
-        <v>22</v>
-      </c>
-      <c r="E174" t="s">
-        <v>189</v>
-      </c>
-      <c r="F174" t="s">
-        <v>236</v>
-      </c>
-      <c r="G174" t="s">
-        <v>237</v>
-      </c>
-      <c r="H174" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+        <v>OLZBVC</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B175" s="2" t="str">
+      <c r="B175" t="s">
+        <v>239</v>
+      </c>
+      <c r="C175" t="s">
+        <v>26</v>
+      </c>
+      <c r="D175" t="s">
+        <v>193</v>
+      </c>
+      <c r="E175" t="s">
+        <v>240</v>
+      </c>
+      <c r="F175" t="s">
+        <v>155</v>
+      </c>
+      <c r="G175" t="s">
+        <v>238</v>
+      </c>
+      <c r="M175" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>BZIXTJ</v>
-      </c>
-      <c r="C175" t="s">
-        <v>239</v>
-      </c>
-      <c r="D175" t="s">
-        <v>26</v>
-      </c>
-      <c r="E175" t="s">
-        <v>193</v>
-      </c>
-      <c r="F175" t="s">
-        <v>240</v>
-      </c>
-      <c r="G175" t="s">
-        <v>155</v>
-      </c>
-      <c r="H175" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+        <v>CIHLDC</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B176" s="2" t="str">
+      <c r="B176" t="s">
+        <v>241</v>
+      </c>
+      <c r="C176" t="s">
+        <v>32</v>
+      </c>
+      <c r="D176" t="s">
+        <v>197</v>
+      </c>
+      <c r="E176" t="s">
+        <v>165</v>
+      </c>
+      <c r="F176" t="s">
+        <v>242</v>
+      </c>
+      <c r="G176" t="s">
+        <v>243</v>
+      </c>
+      <c r="H176" t="s">
+        <v>167</v>
+      </c>
+      <c r="M176" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>VYAGAT</v>
-      </c>
-      <c r="C176" t="s">
-        <v>241</v>
-      </c>
-      <c r="D176" t="s">
-        <v>32</v>
-      </c>
-      <c r="E176" t="s">
-        <v>197</v>
-      </c>
-      <c r="F176" t="s">
-        <v>165</v>
-      </c>
-      <c r="G176" t="s">
-        <v>242</v>
-      </c>
-      <c r="H176" t="s">
-        <v>243</v>
-      </c>
-      <c r="I176" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+        <v>CMVWRI</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B177" s="2" t="str">
+      <c r="B177" t="s">
+        <v>244</v>
+      </c>
+      <c r="C177" t="s">
+        <v>36</v>
+      </c>
+      <c r="D177" t="s">
+        <v>201</v>
+      </c>
+      <c r="E177" t="s">
+        <v>165</v>
+      </c>
+      <c r="F177" t="s">
+        <v>242</v>
+      </c>
+      <c r="G177" t="s">
+        <v>243</v>
+      </c>
+      <c r="H177" t="s">
+        <v>170</v>
+      </c>
+      <c r="M177" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>VDSLMP</v>
-      </c>
-      <c r="C177" t="s">
-        <v>244</v>
-      </c>
-      <c r="D177" t="s">
-        <v>36</v>
-      </c>
-      <c r="E177" t="s">
-        <v>201</v>
-      </c>
-      <c r="F177" t="s">
-        <v>165</v>
-      </c>
-      <c r="G177" t="s">
-        <v>242</v>
-      </c>
-      <c r="H177" t="s">
-        <v>243</v>
-      </c>
-      <c r="I177" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+        <v>QCKWPM</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B178" s="2" t="str">
+      <c r="B178" t="s">
+        <v>245</v>
+      </c>
+      <c r="C178" t="s">
+        <v>40</v>
+      </c>
+      <c r="D178" t="s">
+        <v>205</v>
+      </c>
+      <c r="E178" t="s">
+        <v>52</v>
+      </c>
+      <c r="M178" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>QJVHVJ</v>
-      </c>
-      <c r="C178" t="s">
-        <v>245</v>
-      </c>
-      <c r="D178" t="s">
-        <v>40</v>
-      </c>
-      <c r="E178" t="s">
-        <v>205</v>
-      </c>
-      <c r="F178" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+        <v>CFWHPP</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B179" s="2" t="str">
+      <c r="B179" t="s">
+        <v>246</v>
+      </c>
+      <c r="C179" t="s">
+        <v>45</v>
+      </c>
+      <c r="D179" t="s">
+        <v>208</v>
+      </c>
+      <c r="E179" t="s">
+        <v>52</v>
+      </c>
+      <c r="M179" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>YISOBX</v>
-      </c>
-      <c r="C179" t="s">
-        <v>246</v>
-      </c>
-      <c r="D179" t="s">
-        <v>45</v>
-      </c>
-      <c r="E179" t="s">
-        <v>208</v>
-      </c>
-      <c r="F179" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+        <v>BNXOLT</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B180" s="2" t="str">
+      <c r="B180" t="s">
+        <v>323</v>
+      </c>
+      <c r="C180" t="s">
+        <v>49</v>
+      </c>
+      <c r="D180" t="s">
+        <v>211</v>
+      </c>
+      <c r="E180" t="s">
+        <v>52</v>
+      </c>
+      <c r="M180" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>OXTQFJ</v>
-      </c>
-      <c r="C180" t="s">
-        <v>323</v>
-      </c>
-      <c r="D180" t="s">
-        <v>49</v>
-      </c>
-      <c r="E180" t="s">
-        <v>211</v>
-      </c>
-      <c r="F180" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+        <v>XYBPZQ</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B181" s="2" t="str">
+      <c r="B181" t="s">
+        <v>324</v>
+      </c>
+      <c r="C181" t="s">
+        <v>76</v>
+      </c>
+      <c r="D181" t="s">
+        <v>214</v>
+      </c>
+      <c r="E181" t="s">
+        <v>52</v>
+      </c>
+      <c r="M181" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>MFRBBS</v>
-      </c>
-      <c r="C181" t="s">
-        <v>324</v>
-      </c>
-      <c r="D181" t="s">
-        <v>76</v>
-      </c>
-      <c r="E181" t="s">
-        <v>214</v>
-      </c>
-      <c r="F181" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+        <v>VKBIPQ</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B182" s="2" t="str">
+      <c r="B182" t="s">
+        <v>325</v>
+      </c>
+      <c r="C182" t="s">
+        <v>80</v>
+      </c>
+      <c r="D182" t="s">
+        <v>217</v>
+      </c>
+      <c r="E182" t="s">
+        <v>52</v>
+      </c>
+      <c r="M182" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>KICPVW</v>
-      </c>
-      <c r="C182" t="s">
-        <v>325</v>
-      </c>
-      <c r="D182" t="s">
-        <v>80</v>
-      </c>
-      <c r="E182" t="s">
-        <v>217</v>
-      </c>
-      <c r="F182" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+        <v>GDCLEI</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B183" s="2" t="str">
+      <c r="B183" t="s">
+        <v>326</v>
+      </c>
+      <c r="C183" t="s">
+        <v>84</v>
+      </c>
+      <c r="D183" t="s">
+        <v>220</v>
+      </c>
+      <c r="E183" t="s">
+        <v>52</v>
+      </c>
+      <c r="M183" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>SOGKDN</v>
-      </c>
-      <c r="C183" t="s">
-        <v>326</v>
-      </c>
-      <c r="D183" t="s">
-        <v>84</v>
-      </c>
-      <c r="E183" t="s">
-        <v>220</v>
-      </c>
-      <c r="F183" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+        <v>PBNWFN</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B184" s="2" t="str">
+      <c r="B184" t="s">
+        <v>327</v>
+      </c>
+      <c r="C184" t="s">
+        <v>88</v>
+      </c>
+      <c r="D184" t="s">
+        <v>223</v>
+      </c>
+      <c r="E184" t="s">
+        <v>52</v>
+      </c>
+      <c r="M184" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>RMKVBF</v>
-      </c>
-      <c r="C184" t="s">
-        <v>327</v>
-      </c>
-      <c r="D184" t="s">
-        <v>88</v>
-      </c>
-      <c r="E184" t="s">
-        <v>223</v>
-      </c>
-      <c r="F184" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+        <v>ZKWBOC</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B185" s="2" t="str">
+      <c r="B185" t="s">
+        <v>328</v>
+      </c>
+      <c r="C185" t="s">
+        <v>92</v>
+      </c>
+      <c r="D185" t="s">
+        <v>225</v>
+      </c>
+      <c r="E185" t="s">
+        <v>52</v>
+      </c>
+      <c r="M185" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>UESRBT</v>
-      </c>
-      <c r="C185" t="s">
-        <v>328</v>
-      </c>
-      <c r="D185" t="s">
-        <v>92</v>
-      </c>
-      <c r="E185" t="s">
-        <v>225</v>
-      </c>
-      <c r="F185" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+        <v>ZQWMOI</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B186" s="2" t="str">
+      <c r="B186" t="s">
+        <v>329</v>
+      </c>
+      <c r="C186" t="s">
+        <v>98</v>
+      </c>
+      <c r="D186" t="s">
+        <v>227</v>
+      </c>
+      <c r="E186" t="s">
+        <v>52</v>
+      </c>
+      <c r="M186" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>ATFXEU</v>
-      </c>
-      <c r="C186" t="s">
-        <v>329</v>
-      </c>
-      <c r="D186" t="s">
-        <v>98</v>
-      </c>
-      <c r="E186" t="s">
-        <v>227</v>
-      </c>
-      <c r="F186" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+        <v>BFKYXF</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B187" s="2" t="str">
+      <c r="B187" t="s">
+        <v>330</v>
+      </c>
+      <c r="C187" t="s">
+        <v>105</v>
+      </c>
+      <c r="D187" t="s">
+        <v>230</v>
+      </c>
+      <c r="E187" t="s">
+        <v>52</v>
+      </c>
+      <c r="M187" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>YBXENE</v>
-      </c>
-      <c r="C187" t="s">
-        <v>330</v>
-      </c>
-      <c r="D187" t="s">
-        <v>105</v>
-      </c>
-      <c r="E187" t="s">
-        <v>230</v>
-      </c>
-      <c r="F187" t="s">
-        <v>52</v>
+        <v>EZLIMN</v>
       </c>
     </row>
   </sheetData>

--- a/import/data.xlsx
+++ b/import/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kir\Desktop\PycharmProjects\RSLogix_signal_processing\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C629A7-CB98-48C3-8288-E520BF793EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EEB8D0-F4F4-4BF5-9062-4F473522D3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1556,7 +1556,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AP187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
@@ -1652,7 +1652,7 @@
       </c>
       <c r="M2" s="2" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
-        <v>QNMAKS</v>
+        <v>QODQMI</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.2">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="M4" s="2" t="str">
         <f t="shared" ref="M4:M63" ca="1" si="0">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
-        <v>UFLEGE</v>
+        <v>SOSYEF</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.2">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="M21" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>JTTKKP</v>
+        <v>MJVVFN</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="M23" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TFHSZB</v>
+        <v>TKSJNT</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -2022,7 +2022,7 @@
       </c>
       <c r="M25" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>IWYOGZ</v>
+        <v>PTUWYL</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="M27" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TVTMXJ</v>
+        <v>CTZXGW</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="M29" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>JQVWWJ</v>
+        <v>HAWJBB</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="M31" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>ONVPAQ</v>
+        <v>KWAVWF</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="M33" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>EZYYCR</v>
+        <v>RPKCYT</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="M35" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>KZIXWV</v>
+        <v>GOFZHC</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="M42" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>WFLMYW</v>
+        <v>KRONQV</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
@@ -2305,7 +2305,7 @@
       </c>
       <c r="M43" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MURKSR</v>
+        <v>ARZBNB</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="M44" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MSLQQD</v>
+        <v>SGHMAD</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="M45" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NHASLS</v>
+        <v>HZGEKI</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="M48" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>DPEZCD</v>
+        <v>KARBXZ</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
@@ -2443,7 +2443,7 @@
       </c>
       <c r="M52" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NLFDLI</v>
+        <v>IDPQCW</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="M57" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>RTRICX</v>
+        <v>NHVXTU</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="M60" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>IVGHZN</v>
+        <v>ANMTBZ</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="M63" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>RENDXL</v>
+        <v>XYHCJK</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="M67" s="2" t="str">
         <f t="shared" ref="M67:M130" ca="1" si="1">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
-        <v>JLATIA</v>
+        <v>VPFXBZ</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="M70" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>YZWPLN</v>
+        <v>PBLQOH</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="M71" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>EYBCNW</v>
+        <v>ECLIUN</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
@@ -2748,7 +2748,7 @@
       </c>
       <c r="M72" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>UXXCXA</v>
+        <v>UYNHCK</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="M73" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NZOFAK</v>
+        <v>YBDSGX</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="M74" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>DHODQG</v>
+        <v>VKHXOM</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="M75" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>IPNRWF</v>
+        <v>EOBKBV</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="M76" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>QBILPS</v>
+        <v>SHMWUY</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
@@ -2880,7 +2880,7 @@
       </c>
       <c r="M77" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>KDPUIW</v>
+        <v>XPDPLS</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="M78" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CDVQDR</v>
+        <v>DEQJNL</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
@@ -2934,7 +2934,7 @@
       </c>
       <c r="M79" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OMZMKM</v>
+        <v>NGMJAG</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
@@ -2961,7 +2961,7 @@
       </c>
       <c r="M80" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>PZPKSY</v>
+        <v>GOGCEG</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
@@ -2985,7 +2985,7 @@
       </c>
       <c r="M81" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NJNVCE</v>
+        <v>QIGPTM</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
@@ -3006,7 +3006,7 @@
       </c>
       <c r="M82" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>BMYYBY</v>
+        <v>LVUWTP</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
@@ -3033,7 +3033,7 @@
       </c>
       <c r="M83" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>FHYHLB</v>
+        <v>ETUONF</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
@@ -3060,7 +3060,7 @@
       </c>
       <c r="M84" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TOQZPL</v>
+        <v>CFOEPC</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
@@ -3090,7 +3090,7 @@
       </c>
       <c r="M85" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>SDBNYR</v>
+        <v>MXGGGV</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="M87" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OEKMEM</v>
+        <v>UNDDFP</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="M88" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>KYLNQA</v>
+        <v>AOMOMX</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
@@ -3169,7 +3169,7 @@
       </c>
       <c r="M89" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>SLHCWT</v>
+        <v>WTQQOZ</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="M90" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ZBJLPM</v>
+        <v>SGEOYS</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
@@ -3217,7 +3217,7 @@
       </c>
       <c r="M91" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>IJPBGO</v>
+        <v>BHPUQB</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="M92" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LAPCHM</v>
+        <v>JKUKNN</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
@@ -3265,7 +3265,7 @@
       </c>
       <c r="M93" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>QMRVVJ</v>
+        <v>DFMGIR</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="M94" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>GKDUFO</v>
+        <v>SXNHAQ</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
@@ -3313,7 +3313,7 @@
       </c>
       <c r="M95" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>PWLUOX</v>
+        <v>MNLHEG</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="M96" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LSZRUC</v>
+        <v>VLOFIJ</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
@@ -3361,7 +3361,7 @@
       </c>
       <c r="M97" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>WDTTVE</v>
+        <v>BUCHQB</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="M98" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>KPPPHP</v>
+        <v>DPASLV</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="M99" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>PGXITL</v>
+        <v>SEOKHJ</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="M100" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CHOQFV</v>
+        <v>YRVKQD</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="M101" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>BWEEQB</v>
+        <v>ZZAMSA</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
@@ -3493,7 +3493,7 @@
       </c>
       <c r="M102" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>XFOWAF</v>
+        <v>KOSWQI</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
@@ -3525,7 +3525,7 @@
       </c>
       <c r="M104" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NUWLNN</v>
+        <v>FPPXCZ</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="M105" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CNRJYE</v>
+        <v>DHXDYW</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
@@ -3573,7 +3573,7 @@
       </c>
       <c r="M106" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>EEMRYP</v>
+        <v>KVSBUR</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
@@ -3597,7 +3597,7 @@
       </c>
       <c r="M107" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ZPTAIM</v>
+        <v>WWZMUK</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="M108" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ACYSMR</v>
+        <v>RKLVWF</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
@@ -3645,7 +3645,7 @@
       </c>
       <c r="M109" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>KQBIKN</v>
+        <v>GZIQNC</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="M110" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>MCEBIW</v>
+        <v>IBDJHY</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
@@ -3693,7 +3693,7 @@
       </c>
       <c r="M111" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>MVUWQB</v>
+        <v>HDFTAF</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
@@ -3720,7 +3720,7 @@
       </c>
       <c r="M112" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>IKSJFC</v>
+        <v>LARUTP</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="M113" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>PJBARH</v>
+        <v>JEIHBG</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
@@ -3774,7 +3774,7 @@
       </c>
       <c r="M114" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ZDAQBR</v>
+        <v>BILKSN</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
@@ -3795,7 +3795,7 @@
       </c>
       <c r="M115" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>FUMRVY</v>
+        <v>WXBSRA</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
@@ -3822,7 +3822,7 @@
       </c>
       <c r="M116" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>XSZJLU</v>
+        <v>ZOYEDD</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
@@ -3843,7 +3843,7 @@
       </c>
       <c r="M117" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>SCFRPI</v>
+        <v>BZTMED</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
@@ -3864,7 +3864,7 @@
       </c>
       <c r="M118" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>UJHXJI</v>
+        <v>IOQEEF</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
@@ -3888,7 +3888,7 @@
       </c>
       <c r="M119" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>QZHVTG</v>
+        <v>MUOBGT</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="M121" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>BRPZDK</v>
+        <v>MUUWUV</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
@@ -3940,7 +3940,7 @@
       </c>
       <c r="M122" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>XPEOVE</v>
+        <v>YTMPUL</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
@@ -3964,7 +3964,7 @@
       </c>
       <c r="M123" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>DQOEJQ</v>
+        <v>OULNAZ</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
@@ -3988,7 +3988,7 @@
       </c>
       <c r="M124" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>DTVIEV</v>
+        <v>ENBZCY</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
@@ -4012,7 +4012,7 @@
       </c>
       <c r="M125" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>MNVFUR</v>
+        <v>YYUKHO</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
@@ -4036,7 +4036,7 @@
       </c>
       <c r="M126" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>VYKCWN</v>
+        <v>XBHURO</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
@@ -4060,7 +4060,7 @@
       </c>
       <c r="M127" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>UYXBFL</v>
+        <v>MBHWKM</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
@@ -4084,7 +4084,7 @@
       </c>
       <c r="M128" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>XQBGWI</v>
+        <v>OPFKCZ</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
@@ -4108,7 +4108,7 @@
       </c>
       <c r="M129" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>IGLLOU</v>
+        <v>PIMXPL</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
@@ -4132,7 +4132,7 @@
       </c>
       <c r="M130" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>DVERYC</v>
+        <v>WEFSHC</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="M131" s="2" t="str">
         <f t="shared" ref="M131:M187" ca="1" si="2">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
-        <v>DNRUTR</v>
+        <v>CIVYIO</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
@@ -4180,7 +4180,7 @@
       </c>
       <c r="M132" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>WVYIDA</v>
+        <v>JWMYOQ</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
@@ -4204,7 +4204,7 @@
       </c>
       <c r="M133" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>LDBDJT</v>
+        <v>VZUDRX</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
@@ -4228,7 +4228,7 @@
       </c>
       <c r="M134" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>CXVMZL</v>
+        <v>SSDEVB</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.2">
@@ -4252,7 +4252,7 @@
       </c>
       <c r="M135" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NMXXKV</v>
+        <v>RXDANA</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.2">
@@ -4276,7 +4276,7 @@
       </c>
       <c r="M136" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>HKDOLH</v>
+        <v>BJACMC</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.2">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="M138" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>HHYNIT</v>
+        <v>WRAGKX</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.2">
@@ -4328,7 +4328,7 @@
       </c>
       <c r="M139" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>IBJOPO</v>
+        <v>LEKBKI</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.2">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="M140" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>OHEVMC</v>
+        <v>SUBUPV</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.2">
@@ -4376,7 +4376,7 @@
       </c>
       <c r="M141" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>ALUSBZ</v>
+        <v>ONHRJO</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.2">
@@ -4400,7 +4400,7 @@
       </c>
       <c r="M142" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>GLQGAP</v>
+        <v>QRRBYF</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.2">
@@ -4424,7 +4424,7 @@
       </c>
       <c r="M143" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>LQOGBY</v>
+        <v>RKPGNU</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.2">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="M144" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>PJZEPJ</v>
+        <v>MOBTDD</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.2">
@@ -4472,7 +4472,7 @@
       </c>
       <c r="M145" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AXDOFY</v>
+        <v>YIUUMT</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.2">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="M146" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>HYMFVT</v>
+        <v>VRJSWH</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.2">
@@ -4517,7 +4517,7 @@
       </c>
       <c r="M147" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>EHHMBW</v>
+        <v>SLQWHK</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.2">
@@ -4538,7 +4538,7 @@
       </c>
       <c r="M148" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>JKIOSH</v>
+        <v>IQZGND</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.2">
@@ -4559,7 +4559,7 @@
       </c>
       <c r="M149" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TERUQL</v>
+        <v>EYFBLF</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.2">
@@ -4580,7 +4580,7 @@
       </c>
       <c r="M150" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>QIBGRC</v>
+        <v>OTFMNE</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.2">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="M151" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AYUAAP</v>
+        <v>DCPFAV</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.2">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="M152" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>RPUSWZ</v>
+        <v>ZSBIGC</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.2">
@@ -4643,7 +4643,7 @@
       </c>
       <c r="M153" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AORWUK</v>
+        <v>OEESPP</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.2">
@@ -4677,7 +4677,7 @@
       </c>
       <c r="M155" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>KHDUYA</v>
+        <v>NLNQKG</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.2">
@@ -4704,7 +4704,7 @@
       </c>
       <c r="M156" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>RZBLID</v>
+        <v>CWWZBP</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.2">
@@ -4731,7 +4731,7 @@
       </c>
       <c r="M157" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>UZLXDI</v>
+        <v>KOLVDQ</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.2">
@@ -4758,7 +4758,7 @@
       </c>
       <c r="M158" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>RVPWKT</v>
+        <v>DMPSXO</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.2">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="M159" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>LHZCCG</v>
+        <v>FDCSBW</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.2">
@@ -4812,7 +4812,7 @@
       </c>
       <c r="M160" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>CANZDC</v>
+        <v>RJQWPP</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.2">
@@ -4833,7 +4833,7 @@
       </c>
       <c r="M161" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>YSCWWG</v>
+        <v>IMNVOC</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.2">
@@ -4854,7 +4854,7 @@
       </c>
       <c r="M162" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>VTSFHM</v>
+        <v>RATDTT</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.2">
@@ -4875,7 +4875,7 @@
       </c>
       <c r="M163" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>WBXIMP</v>
+        <v>UKUXCS</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.2">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="M164" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TTTBYS</v>
+        <v>KMKQWP</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.2">
@@ -4917,7 +4917,7 @@
       </c>
       <c r="M165" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>BHRKVK</v>
+        <v>NAKOMW</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.2">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="M166" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>OBUFMX</v>
+        <v>GISEYT</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.2">
@@ -4959,7 +4959,7 @@
       </c>
       <c r="M167" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>PGFURH</v>
+        <v>IBYAOF</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.2">
@@ -4980,7 +4980,7 @@
       </c>
       <c r="M168" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>RXNMHS</v>
+        <v>GRYMTE</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.2">
@@ -5004,7 +5004,7 @@
       </c>
       <c r="M169" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>VQICJL</v>
+        <v>OVOKGA</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.2">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="M170" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>LYQZCD</v>
+        <v>AFZMJB</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.2">
@@ -5056,7 +5056,7 @@
       </c>
       <c r="M172" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>LTKEVX</v>
+        <v>HDXQWD</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.2">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="M173" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>DZFYOJ</v>
+        <v>EWKDGQ</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.2">
@@ -5107,7 +5107,7 @@
       </c>
       <c r="M174" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>OLZBVC</v>
+        <v>GMSLZL</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.2">
@@ -5134,7 +5134,7 @@
       </c>
       <c r="M175" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>CIHLDC</v>
+        <v>YCGDCP</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.2">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="M176" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>CMVWRI</v>
+        <v>GDCODP</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.2">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="M177" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>QCKWPM</v>
+        <v>NKZUHS</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.2">
@@ -5215,7 +5215,7 @@
       </c>
       <c r="M178" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>CFWHPP</v>
+        <v>LKNPFA</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.2">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="M179" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>BNXOLT</v>
+        <v>QERCDN</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.2">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="M180" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>XYBPZQ</v>
+        <v>YERQUS</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.2">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="M181" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>VKBIPQ</v>
+        <v>NIZUTN</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.2">
@@ -5299,7 +5299,7 @@
       </c>
       <c r="M182" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>GDCLEI</v>
+        <v>KVJLEH</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.2">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="M183" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>PBNWFN</v>
+        <v>TNBZNS</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.2">
@@ -5341,7 +5341,7 @@
       </c>
       <c r="M184" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>ZKWBOC</v>
+        <v>UTJARO</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.2">
@@ -5362,7 +5362,7 @@
       </c>
       <c r="M185" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>ZQWMOI</v>
+        <v>ALHVVV</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.2">
@@ -5383,7 +5383,7 @@
       </c>
       <c r="M186" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>BFKYXF</v>
+        <v>TZUBFZ</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.2">
@@ -5404,7 +5404,7 @@
       </c>
       <c r="M187" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>EZLIMN</v>
+        <v>LQMHAQ</v>
       </c>
     </row>
   </sheetData>
